--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.099280161196</v>
+        <v>0.038238439928</v>
       </c>
       <c r="R2">
-        <v>0.8935214507639999</v>
+        <v>0.344145959352</v>
       </c>
       <c r="S2">
-        <v>0.0003702626236094501</v>
+        <v>0.0001449892380990954</v>
       </c>
       <c r="T2">
-        <v>0.0003702626236094501</v>
+        <v>0.0001449892380990954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.05493541103033333</v>
+        <v>0.03355923398533334</v>
       </c>
       <c r="R3">
-        <v>0.4944186992729999</v>
+        <v>0.302033105868</v>
       </c>
       <c r="S3">
-        <v>0.0002048801006376112</v>
+        <v>0.0001272470261831952</v>
       </c>
       <c r="T3">
-        <v>0.0002048801006376112</v>
+        <v>0.0001272470261831952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
-        <v>8.149786980915</v>
+        <v>4.97858490714</v>
       </c>
       <c r="R4">
-        <v>73.34808282823499</v>
+        <v>44.80726416426</v>
       </c>
       <c r="S4">
-        <v>0.03039440582146542</v>
+        <v>0.01887737140576486</v>
       </c>
       <c r="T4">
-        <v>0.03039440582146542</v>
+        <v>0.01887737140576486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N5">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q5">
-        <v>2.623953022022667</v>
+        <v>1.654375486071333</v>
       </c>
       <c r="R5">
-        <v>23.615577198204</v>
+        <v>14.889379374642</v>
       </c>
       <c r="S5">
-        <v>0.009785960442227825</v>
+        <v>0.006272919128158824</v>
       </c>
       <c r="T5">
-        <v>0.009785960442227825</v>
+        <v>0.006272919128158824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N6">
         <v>0.220589</v>
       </c>
       <c r="O6">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P6">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q6">
         <v>1.451930940205889</v>
@@ -818,10 +818,10 @@
         <v>13.067378461853</v>
       </c>
       <c r="S6">
-        <v>0.005414936405663571</v>
+        <v>0.005505307255979515</v>
       </c>
       <c r="T6">
-        <v>0.00541493640566357</v>
+        <v>0.005505307255979515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>32.724855</v>
       </c>
       <c r="O7">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P7">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q7">
         <v>215.397093636815</v>
@@ -880,10 +880,10 @@
         <v>1938.573842731335</v>
       </c>
       <c r="S7">
-        <v>0.8033175213159384</v>
+        <v>0.816724232316106</v>
       </c>
       <c r="T7">
-        <v>0.8033175213159383</v>
+        <v>0.8167242323161059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N8">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O8">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P8">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q8">
-        <v>0.4825016711160001</v>
+        <v>0.304212358218</v>
       </c>
       <c r="R8">
-        <v>4.342515040044001</v>
+        <v>2.737911223962</v>
       </c>
       <c r="S8">
-        <v>0.001799476677829489</v>
+        <v>0.001153486337868593</v>
       </c>
       <c r="T8">
-        <v>0.001799476677829489</v>
+        <v>0.001153486337868593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N9">
         <v>0.220589</v>
       </c>
       <c r="O9">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P9">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q9">
-        <v>0.266986146137</v>
+        <v>0.2669861461370001</v>
       </c>
       <c r="R9">
         <v>2.402875315233</v>
       </c>
       <c r="S9">
-        <v>0.0009957174700885212</v>
+        <v>0.001012335178535148</v>
       </c>
       <c r="T9">
-        <v>0.0009957174700885212</v>
+        <v>0.001012335178535147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>32.724855</v>
       </c>
       <c r="O10">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P10">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q10">
         <v>39.607971926715</v>
@@ -1066,10 +1066,10 @@
         <v>356.471747340435</v>
       </c>
       <c r="S10">
-        <v>0.1477168391425397</v>
+        <v>0.1501821121133049</v>
       </c>
       <c r="T10">
-        <v>0.1477168391425397</v>
+        <v>0.1501821121133049</v>
       </c>
     </row>
   </sheetData>
